--- a/data/trans_camb/P54_A_5_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_5_R-Urba-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,6</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,11</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,65</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,03</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,16</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,56</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,7; -2,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,03; -5,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,63; -8,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,12; -8,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,54; -6,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,68; -7,75</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-79,19%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-97,28%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-95,16%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-90,08%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-88,93%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-92,8%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,15; -31,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -90,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-98,89; -84,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,32; -79,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,38; -67,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-96,25; -86,04</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,67</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,29</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,61</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,78</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,1</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,0</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,31; -4,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,94; -4,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,02; -7,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,16; -8,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,41; -7,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,4; -6,92</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-94,57%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-89,91%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-92,76%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-94,24%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-93,47%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-92,41%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -74,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-96,68; -72,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-98,01; -81,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-98,48; -83,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-97,33; -84,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-96,35; -84,45</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,77</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,77</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,37</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,98</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,58</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,39</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,32; -2,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,9; -2,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,92; -1,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,52; -1,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,92; -3,62</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,62; -3,6</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-88,13%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-82,83%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-95,38%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-93,27%</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1037,22 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 15,14</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -9,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -66,4</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -67,06</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,49</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,06</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,67</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,38</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,07</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,21</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,26; -5,16</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,79; -6,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,85; -8,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,59; -8,52</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,77; -7,56</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,1; -7,92</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-88,13%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-94,87%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-93,74%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-91,17%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-91,36%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-92,7%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,39 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,91; -63,17</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-98,02; -88,75</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-97,33; -87,42</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,1; -84,19</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,52; -81,3</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,48; -88,69</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P54_A_5_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_5_R-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -599,467 +608,319 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-6,6</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-8,11</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-11,65</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-11,03</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-9,16</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-9,56</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-5.276549960721097</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-8.027738274992114</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-11.54947898330746</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-10.68545627252124</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-8.469275732076609</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-9.318568966544568</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-9,7; -2,95</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-11,03; -5,79</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-14,63; -8,74</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-14,12; -8,1</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-11,54; -6,96</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-11,68; -7,75</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-8.773071202295837</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-10.71924412924609</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-14.67979748191103</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-13.97863112029257</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-10.80047012019091</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-11.67930518887812</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-79,19%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-97,28%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-95,16%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-90,08%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-88,93%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-92,8%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>2.317815519207057</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-5.263430025929205</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-8.611684539691238</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>-7.90041599214543</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>-4.816255722527001</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>-7.441815781848378</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-95,15; -31,41</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -90,12</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-98,89; -84,99</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-95,32; -79,56</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-95,38; -67,77</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-96,25; -86,04</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.6331534769504096</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.9632791196322762</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.9435495017183569</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.8729620579545333</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.8225085667125216</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.9049891687261253</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-7,67</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-7,29</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-10,61</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-10,78</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-9,1</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-9,0</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.9242918650698884</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.9879510239645724</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.9453489822878602</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.9423516760228778</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.9524588990249443</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-11,31; -4,92</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-10,94; -4,51</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-14,02; -7,75</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-14,16; -8,12</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-11,41; -7,12</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-11,4; -6,92</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.5967277667915227</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>-0.8466451224405624</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>-0.801938273808278</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>-0.7361380545641317</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>-0.3118063795185789</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>-0.8337817208611342</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-94,57%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-89,91%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-92,76%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-94,24%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-93,47%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-92,41%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-7.591252692764859</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-7.024381162712566</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-9.438226487158721</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-10.61690524297794</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-8.452021232474172</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-8.789172673473784</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -74,36</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-96,68; -72,62</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-98,01; -81,25</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-98,48; -83,55</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-97,33; -84,99</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-96,35; -84,45</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-11.13573541378374</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-10.38705833968772</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-13.09120324248528</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-14.03312236598564</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-10.85884149145954</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-11.34671371359802</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-10,77</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-10,77</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-6,37</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-5,98</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-8,58</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-8,39</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-4.731341888235599</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-4.024010559061582</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-5.090608580006233</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>-7.621905578595032</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>-5.916011180803476</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>-6.756412965914821</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-36,32; -2,18</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-34,9; -2,23</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-12,92; -1,66</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-12,52; -1,56</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-20,92; -3,62</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-21,62; -3,6</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.9356349028023723</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.8657670153287523</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.8252320175178315</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.9282898800297658</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.8679435151402733</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.9025658142078008</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-88,13%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-82,83%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-95,38%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-93,27%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.9580597728993837</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.9660388575641845</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.982595390317592</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.9587795943365253</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.9570111460198536</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 15,14</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -9,82</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -66,4</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -67,06</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>-0.7603099819877465</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>-0.6417845293714924</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>-0.3281129872020466</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>-0.7890958691853551</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>-0.5766013901974854</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>-0.8167721140306115</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1067,153 +928,309 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-7,49</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-8,06</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-10,67</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-10,38</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-9,07</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-9,21</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-10.77397254857967</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-10.77397254857967</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-6.003055470010677</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-5.488062718497253</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>-8.444061194177163</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>-8.169765667979245</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-10,26; -5,16</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-10,79; -6,07</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-12,85; -8,77</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-12,59; -8,52</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-10,77; -7,56</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-11,1; -7,92</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-34.04503968043018</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-34.56466954281292</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-12.54524433381918</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-11.57876994160448</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>-22.05139986904139</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>-20.63614118577942</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-88,13%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-94,87%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-93,74%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>-91,17%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>-91,36%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>-92,7%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>-2.192416222277396</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>-2.168505158918851</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>-1.268378489126203</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>-0.7063982420527182</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>-3.779691108396589</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>-2.97588649616957</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-95,91; -63,17</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-98,02; -88,75</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-97,33; -87,42</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>-95,1; -84,19</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>-95,52; -81,3</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>-95,48; -88,69</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.8311113097501024</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>-0.7598115687498131</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>-0.9382163712409968</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>-0.9077395014837629</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="inlineStr"/>
+      <c r="D20" s="6" t="inlineStr"/>
+      <c r="E20" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="inlineStr"/>
+      <c r="D21" s="6" t="inlineStr"/>
+      <c r="E21" s="6" t="n">
+        <v>0.5727611667604579</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>0.3415714340528891</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>-0.528907212205787</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>-0.5752297165575105</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-6.838916372625155</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-7.914399410288324</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-10.10270080057211</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>-10.09954833306247</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>-8.465299665901698</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>-8.979581832216654</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-9.382829528230777</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-10.62009918761792</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-12.3237206604047</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-12.35320774661477</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>-10.23455978284789</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>-10.56498211611166</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>-3.272634078161035</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>-5.988248437662173</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>-7.804328688185749</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>-8.211041196499448</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>-6.494203760135885</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>-7.62218048192084</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.8045838788960571</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.931112157205416</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.8877474075919953</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>-0.8874703930674195</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>-0.8524838207382145</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <v>-0.9042737447079054</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.9510668588184104</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.9704819059965738</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.9559603476963452</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>-0.9402786812415836</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <v>-0.9292104283716112</v>
+      </c>
+      <c r="H26" s="6" t="n">
+        <v>-0.9395175405264944</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>-0.373398835374756</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>-0.8599800433789172</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>-0.6885025115649173</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>-0.8111263025158991</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <v>-0.6387828341882923</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <v>-0.8531707150089775</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1221,14 +1238,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
